--- a/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_0.xlsx
+++ b/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,100 +477,96 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.04486761904761908</v>
+        <v>0.06276428571428577</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.04486761904761908</v>
+        <v>0.06276428571428577</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.108</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.01024355311355312</v>
+        <v>0.000492406015037597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.05172214285714287</v>
+        <v>0.0633430952380953</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.04520979395604399</v>
+        <v>0.06298070175438603</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.006512348901098877</v>
+        <v>0.0003623934837092696</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.248</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.01073554945054946</v>
+        <v>0.8977283208020055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.05473857142857144</v>
+        <v>0.06368952380952386</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0455519688644689</v>
+        <v>0.06319711779448627</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.009186602564102538</v>
+        <v>0.000492406015037597</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.464</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.902759711538462</v>
+        <v>0.0003676190476190472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.05536190476190479</v>
+        <v>0.06390523809523814</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.04589414377289381</v>
+        <v>0.06341353383458652</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.009467760989010983</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.0003676190476190472</v>
-      </c>
+        <v>0.0004917042606516209</v>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.05534142857142861</v>
+        <v>0.06410571428571432</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.04623631868131872</v>
+        <v>0.06362994987468677</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.009105109890109896</v>
+        <v>0.0004757644110275489</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -578,16 +574,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.05604619047619051</v>
+        <v>0.06435571428571432</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.04657849358974363</v>
+        <v>0.06384636591478703</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.009467696886446886</v>
+        <v>0.0005093483709272956</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -595,16 +591,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.05666285714285718</v>
+        <v>0.0648671428571429</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.04692066849816853</v>
+        <v>0.06406278195488727</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.009742188644688649</v>
+        <v>0.0008043609022556353</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +608,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.05725523809523814</v>
+        <v>0.0655519047619048</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.04726284340659345</v>
+        <v>0.06427919799498752</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.009992394688644692</v>
+        <v>0.001272706766917278</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +625,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.05784857142857147</v>
+        <v>0.06667285714285719</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.04760501831501835</v>
+        <v>0.06449561403508777</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.01024355311355312</v>
+        <v>0.002177243107769414</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +642,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.0580719047619048</v>
+        <v>0.067992380952381</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.04794719322344326</v>
+        <v>0.06471203007518803</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.01012471153846154</v>
+        <v>0.003280350877192972</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +659,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.0584171428571429</v>
+        <v>0.06947809523809528</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.04828936813186817</v>
+        <v>0.06492844611528828</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.01012777472527474</v>
+        <v>0.004549649122807004</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +676,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.05864380952380956</v>
+        <v>0.07157714285714289</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.04863154304029307</v>
+        <v>0.06514486215538852</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.01001226648351649</v>
+        <v>0.006432280701754375</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +693,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.0589019047619048</v>
+        <v>0.07422714285714291</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.04897371794871799</v>
+        <v>0.06536127819548877</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.009928186813186815</v>
+        <v>0.008865864661654135</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +710,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.05911285714285718</v>
+        <v>0.07747857142857148</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.04931589285714289</v>
+        <v>0.06557769423558903</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.009796964285714291</v>
+        <v>0.01190087719298245</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +727,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.0595519047619048</v>
+        <v>0.08162571428571433</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.0496580677655678</v>
+        <v>0.06579411027568928</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.009893836996336995</v>
+        <v>0.01583160401002505</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +744,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.05991095238095242</v>
+        <v>0.08703714285714292</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.05000024267399271</v>
+        <v>0.06601052631578952</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.00991070970695971</v>
+        <v>0.0210266165413534</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +761,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.06045476190476195</v>
+        <v>0.09354666666666672</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.05034241758241762</v>
+        <v>0.06622694235588977</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.01011234432234433</v>
+        <v>0.02731972431077695</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +778,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.06093000000000004</v>
+        <v>0.1024719047619048</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.05068459249084253</v>
+        <v>0.06644335839599003</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.01024540750915751</v>
+        <v>0.03602854636591481</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +795,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.06155571428571433</v>
+        <v>0.1138957142857144</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.05102676739926744</v>
+        <v>0.06665977443609028</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.01052894688644689</v>
+        <v>0.04723593984962408</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +812,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.06207428571428575</v>
+        <v>0.1283295238095239</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.05136894230769234</v>
+        <v>0.06687619047619053</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.0107053434065934</v>
+        <v>0.06145333333333336</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +829,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.06244666666666671</v>
+        <v>0.146904761904762</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.05171111721611726</v>
+        <v>0.06709260651629077</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.01073554945054946</v>
+        <v>0.07981215538847121</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +846,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.06275190476190481</v>
+        <v>0.1704904761904763</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.05205329212454216</v>
+        <v>0.06730902255639103</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.01069861263736265</v>
+        <v>0.1031814536340853</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +863,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.06287571428571434</v>
+        <v>0.199757142857143</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.05239546703296707</v>
+        <v>0.06752543859649128</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.01048024725274727</v>
+        <v>0.1322317042606517</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +880,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.06279380952380957</v>
+        <v>0.2359285714285716</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.05273764194139198</v>
+        <v>0.06774185463659153</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.01005616758241759</v>
+        <v>0.1681867167919801</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +897,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.06301047619047623</v>
+        <v>0.279109523809524</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.05307981684981689</v>
+        <v>0.06795827067669177</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.009930659340659342</v>
+        <v>0.2111512531328322</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +914,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.0632766666666667</v>
+        <v>0.3294142857142859</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.0534219917582418</v>
+        <v>0.06817468671679203</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.009854674908424906</v>
+        <v>0.2612395989974938</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +931,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.06361761904761909</v>
+        <v>0.3866857142857146</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0537641666666667</v>
+        <v>0.06839110275689228</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.009853452380952386</v>
+        <v>0.3182946115288223</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +948,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.06390523809523814</v>
+        <v>0.4499380952380956</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.05410634157509162</v>
+        <v>0.06860751879699253</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.009798896520146524</v>
+        <v>0.381330576441103</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +965,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.06410571428571432</v>
+        <v>0.5176285714285719</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.05444851648351652</v>
+        <v>0.06882393483709279</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.009657197802197801</v>
+        <v>0.4488046365914791</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +982,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.06435571428571432</v>
+        <v>0.5880952380952386</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.05479069139194143</v>
+        <v>0.06904035087719303</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.009565022893772888</v>
+        <v>0.5190548872180455</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +999,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.0648671428571429</v>
+        <v>0.6590428571428577</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.05513286630036634</v>
+        <v>0.06925676691729328</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.009734276556776562</v>
+        <v>0.5897860902255644</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1016,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.0655519047619048</v>
+        <v>0.728076190476191</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.05547504120879125</v>
+        <v>0.06947318295739353</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.01007686355311355</v>
+        <v>0.6586030075187974</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1033,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.06667285714285719</v>
+        <v>0.7926571428571434</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.05581721611721616</v>
+        <v>0.06968959899749379</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.01085564102564103</v>
+        <v>0.7229675438596496</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1050,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.067992380952381</v>
+        <v>0.8500619047619054</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.05615939102564106</v>
+        <v>0.06990601503759403</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.01183298992673994</v>
+        <v>0.7801558897243113</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1067,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.06947809523809528</v>
+        <v>0.8980238095238102</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.05650156593406597</v>
+        <v>0.07012243107769428</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.01297652930402931</v>
+        <v>0.827901378446116</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1084,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.07157714285714289</v>
+        <v>0.9345714285714293</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.05684374084249088</v>
+        <v>0.07033884711779453</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.01473340201465202</v>
+        <v>0.8642325814536347</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1101,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.07422714285714291</v>
+        <v>0.9582428571428577</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.05718591575091579</v>
+        <v>0.07055526315789479</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.01704122710622712</v>
+        <v>0.8876875939849629</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1118,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.07747857142857148</v>
+        <v>0.9685000000000006</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.0575280906593407</v>
+        <v>0.07077167919799504</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.01995048076923078</v>
+        <v>0.8977283208020055</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1135,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.08162571428571433</v>
+        <v>0.9657904761904769</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.05787026556776561</v>
+        <v>0.07098809523809528</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.02375544871794872</v>
+        <v>0.8948023809523816</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1152,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.08703714285714292</v>
+        <v>0.9514523809523816</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.05821244047619051</v>
+        <v>0.07120451127819553</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.02882470238095241</v>
+        <v>0.8802478696741861</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1169,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.09354666666666672</v>
+        <v>0.9278571428571434</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.05855461538461543</v>
+        <v>0.07142092731829579</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.0349920512820513</v>
+        <v>0.8564362155388476</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1186,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.1024719047619048</v>
+        <v>0.8977571428571435</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.05889679029304033</v>
+        <v>0.07163734335839604</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.0435751144688645</v>
+        <v>0.8261197994987475</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1203,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.1138957142857144</v>
+        <v>0.8639523809523815</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.05923896520146524</v>
+        <v>0.07185375939849628</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.05465674908424913</v>
+        <v>0.7920986215538852</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1220,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.1283295238095239</v>
+        <v>0.8296619047619054</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.05958114010989015</v>
+        <v>0.07207017543859653</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.06874838369963374</v>
+        <v>0.7575917293233089</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1237,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.146904761904762</v>
+        <v>0.7967476190476195</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.05992331501831506</v>
+        <v>0.07228659147869679</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.08698144688644692</v>
+        <v>0.7244610275689227</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1254,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.1704904761904763</v>
+        <v>0.7667047619047624</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.06026548992673997</v>
+        <v>0.07250300751879704</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.1102249862637363</v>
+        <v>0.6942017543859654</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1271,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.199757142857143</v>
+        <v>0.7394000000000005</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.06060766483516487</v>
+        <v>0.07271942355889728</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.1391494780219781</v>
+        <v>0.6666805764411032</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1288,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.2359285714285716</v>
+        <v>0.713976190476191</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.06094983974358979</v>
+        <v>0.07293583959899753</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.1749787316849818</v>
+        <v>0.6410403508771935</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1305,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.279109523809524</v>
+        <v>0.6883000000000004</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.0612920146520147</v>
+        <v>0.07315225563909779</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.2178175091575093</v>
+        <v>0.6151477443609026</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1322,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.3294142857142859</v>
+        <v>0.6606904761904766</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.0616341895604396</v>
+        <v>0.07336867167919804</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.2677800961538463</v>
+        <v>0.5873218045112786</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1339,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.3866857142857146</v>
+        <v>0.6293095238095241</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.06197636446886451</v>
+        <v>0.07358508771929828</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.3247093498168501</v>
+        <v>0.5557244360902258</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1356,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.4499380952380956</v>
+        <v>0.5933476190476195</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.06231853937728941</v>
+        <v>0.07380150375939853</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.3876195558608062</v>
+        <v>0.5195461152882209</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1373,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.5176285714285719</v>
+        <v>0.5527476190476194</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.06266071428571432</v>
+        <v>0.07401791979949879</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.4549678571428576</v>
+        <v>0.4787296992481206</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1390,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.5880952380952386</v>
+        <v>0.5082333333333338</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.06300288919413924</v>
+        <v>0.07423433583959904</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.5250923489010993</v>
+        <v>0.4339989974937347</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1407,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.6590428571428577</v>
+        <v>0.4610714285714288</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.06334506410256414</v>
+        <v>0.0744507518796993</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.5956977930402936</v>
+        <v>0.3866206766917295</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1424,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.728076190476191</v>
+        <v>0.4128904761904765</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.06368723901098905</v>
+        <v>0.07466716791979955</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.6643889514652019</v>
+        <v>0.3382233082706769</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1441,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.7926571428571434</v>
+        <v>0.3652523809523812</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.06402941391941397</v>
+        <v>0.07488358395989979</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.7286277289377294</v>
+        <v>0.2903687969924814</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1458,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.8500619047619054</v>
+        <v>0.3195714285714287</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.06437158882783887</v>
+        <v>0.07510000000000004</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.7856903159340665</v>
+        <v>0.2444714285714287</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1475,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.8980238095238102</v>
+        <v>0.2771619047619049</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.06471376373626378</v>
+        <v>0.0753164160401003</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.8333100457875464</v>
+        <v>0.2018454887218046</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1492,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.9345714285714293</v>
+        <v>0.2389380952380954</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.06505593864468869</v>
+        <v>0.07553283208020053</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.8695154899267405</v>
+        <v>0.1634052631578949</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1509,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.9582428571428577</v>
+        <v>0.2057380952380954</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.06539811355311359</v>
+        <v>0.07574924812030079</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.8928447435897442</v>
+        <v>0.1299888471177946</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1526,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.9685000000000006</v>
+        <v>0.1778000000000001</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.06574028846153851</v>
+        <v>0.07596566416040104</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.902759711538462</v>
+        <v>0.1018343358395991</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1543,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.9657904761904769</v>
+        <v>0.1548904761904763</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.06608246336996342</v>
+        <v>0.0761820802005013</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.8997080128205135</v>
+        <v>0.07870839598997498</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1560,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.9514523809523816</v>
+        <v>0.1365285714285715</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.06642463827838832</v>
+        <v>0.07639849624060155</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.8850277426739933</v>
+        <v>0.06013007518796995</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1577,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.9278571428571434</v>
+        <v>0.1220257142857144</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.06676681318681323</v>
+        <v>0.07661491228070179</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.8610903296703302</v>
+        <v>0.04541080200501257</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1594,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.8977571428571435</v>
+        <v>0.110704761904762</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.06710898809523813</v>
+        <v>0.07683132832080204</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.8306481547619053</v>
+        <v>0.03387343358395993</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1611,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.8639523809523815</v>
+        <v>0.1020195238095239</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.06745116300366305</v>
+        <v>0.0770477443609023</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.7965012179487184</v>
+        <v>0.02497177944862158</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1628,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.8296619047619054</v>
+        <v>0.09537571428571436</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.06779333791208796</v>
+        <v>0.07726416040100255</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.7618685668498174</v>
+        <v>0.01811155388471181</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1645,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.7967476190476195</v>
+        <v>0.09062095238095244</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.06813551282051286</v>
+        <v>0.07748057644110279</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.7286121062271066</v>
+        <v>0.01314037593984965</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1662,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.7667047619047624</v>
+        <v>0.08720047619047624</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.06847768772893778</v>
+        <v>0.07769699248120304</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.6982270741758246</v>
+        <v>0.009503483709273203</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1679,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.7394000000000005</v>
+        <v>0.08459666666666671</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.06881986263736267</v>
+        <v>0.0779134085213033</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.6705801373626379</v>
+        <v>0.006683258145363413</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1696,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.713976190476191</v>
+        <v>0.08290476190476195</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.06916203754578759</v>
+        <v>0.07812982456140355</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.6448141529304035</v>
+        <v>0.004774937343358404</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1713,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.6883000000000004</v>
+        <v>0.08166714285714291</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.0695042124542125</v>
+        <v>0.0783462406015038</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.6187957875457879</v>
+        <v>0.003320902255639108</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1730,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.6606904761904766</v>
+        <v>0.08060857142857149</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.0698463873626374</v>
+        <v>0.07856265664160406</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.5908440888278392</v>
+        <v>0.002045914786967432</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1747,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.6293095238095241</v>
+        <v>0.0798676190476191</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.07018856227106232</v>
+        <v>0.0787790726817043</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.5591209615384618</v>
+        <v>0.001088546365914808</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1764,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.5933476190476195</v>
+        <v>0.07949000000000005</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.07053073717948723</v>
+        <v>0.07899548872180455</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.5228168818681322</v>
+        <v>0.0004945112781954975</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1781,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.5527476190476194</v>
+        <v>0.0792119047619048</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.07087291208791213</v>
+        <v>0.0792119047619048</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.4818747069597072</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1798,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.5082333333333338</v>
+        <v>0.07946428571428577</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.07121508699633704</v>
+        <v>0.07946428571428577</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.4370182463369967</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1815,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.4610714285714288</v>
+        <v>0.079792380952381</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.07155726190476194</v>
+        <v>0.079792380952381</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.3895141666666668</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1832,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.4128904761904765</v>
+        <v>0.08012571428571433</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.07189943681318686</v>
+        <v>0.08012571428571433</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.3409910393772896</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1849,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.3652523809523812</v>
+        <v>0.08045380952380957</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.07224161172161177</v>
+        <v>0.08045380952380957</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.2930107692307695</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1866,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.3195714285714287</v>
+        <v>0.08116571428571434</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.07258378663003667</v>
+        <v>0.08116571428571434</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.2469876419413921</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1883,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.2771619047619049</v>
+        <v>0.0818271428571429</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.07292596153846159</v>
+        <v>0.0818271428571429</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.2042359432234434</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1900,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.2389380952380954</v>
+        <v>0.08262523809523814</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.0732681364468865</v>
+        <v>0.08262523809523814</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.1656699587912089</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1917,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.2057380952380954</v>
+        <v>0.0832980952380953</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.0736103113553114</v>
+        <v>0.0832980952380953</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.132127783882784</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1934,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>0.1778000000000001</v>
+        <v>0.08414571428571435</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0.07395248626373631</v>
+        <v>0.08414571428571435</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.1038475137362638</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1951,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.1548904761904763</v>
+        <v>0.08485523809523815</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.07429466117216121</v>
+        <v>0.08485523809523815</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.08059581501831506</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1968,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.1365285714285715</v>
+        <v>0.08596761904761913</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.07463683608058613</v>
+        <v>0.08591628571428576</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.06189173534798537</v>
+        <v>5.133333333336154e-05</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +1985,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>0.1220257142857144</v>
+        <v>0.08711952380952387</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.07497901098901104</v>
+        <v>0.08697733333333339</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.04704670329670332</v>
+        <v>0.0001421904761904763</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +2002,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>0.110704761904762</v>
+        <v>0.08836952380952387</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.07532118589743594</v>
+        <v>0.08803838095238101</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.03538357600732603</v>
+        <v>0.0003311428571428632</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2019,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>0.1020195238095239</v>
+        <v>0.08944761904761911</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0.07566336080586085</v>
+        <v>0.08909942857142863</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.02635616300366303</v>
+        <v>0.0003481904761904742</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2036,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>0.09537571428571436</v>
+        <v>0.0905280952380953</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0.07600553571428575</v>
+        <v>0.09016047619047625</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.0193701785714286</v>
+        <v>0.0003676190476190472</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2053,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>0.09062095238095244</v>
+        <v>0.09132571428571434</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.07634771062271067</v>
+        <v>0.09122152380952388</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.01427324175824177</v>
+        <v>0.0001041904761904661</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2070,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>0.08720047619047624</v>
+        <v>0.09229952380952389</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.07668988553113558</v>
+        <v>0.09228257142857149</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.01051059065934067</v>
+        <v>1.695238095239526e-05</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2087,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0.08459666666666671</v>
+        <v>0.09329190476190484</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.07703206043956048</v>
+        <v>0.09334361904761909</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.007564606227106224</v>
+        <v>-5.171428571425218e-05</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2104,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.08290476190476195</v>
+        <v>0.09433190476190483</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.0773742353479854</v>
+        <v>0.09440466666666672</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.005530526556776549</v>
+        <v>-7.276190476189492e-05</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2121,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>0.08166714285714291</v>
+        <v>0.09546571428571435</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.0777164102564103</v>
+        <v>0.09546571428571435</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.003950732600732615</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2138,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>0.08060857142857149</v>
+        <v>0.09673333333333339</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.07805858516483521</v>
+        <v>0.09673333333333339</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.002549986263736273</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2155,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0.0798676190476191</v>
+        <v>0.09811000000000014</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.07840076007326012</v>
+        <v>0.09811000000000014</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.001466858974358984</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2172,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>0.07949000000000005</v>
+        <v>0.09952714285714302</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.07874293498168503</v>
+        <v>0.09952714285714302</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0.0007470650183150213</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,428 +2189,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0.0792119047619048</v>
+        <v>0.1009347619047621</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.07908510989010994</v>
+        <v>0.1009347619047621</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0.000126794871794858</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>0.07946428571428577</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>0.07942728479853484</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>3.700091575092879e-05</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>0.079792380952381</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>0.07976945970695976</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>2.292124542124796e-05</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>0.08012571428571433</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>0.08011163461538466</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>1.407967032966695e-05</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>0.08045380952380957</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>0.08045380952380957</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>0.08116571428571434</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>0.08116571428571434</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>0.0818271428571429</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>0.0818271428571429</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>0.08262523809523814</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>0.08262523809523814</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>0.0832980952380953</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>0.0832980952380953</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>0.08414571428571435</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>0.08414571428571435</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>0.08485523809523815</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>0.08485523809523815</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>0.08596761904761913</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>0.08591628571428576</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>5.133333333336154e-05</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>0.08711952380952387</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>0.08697733333333339</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0.0001421904761904763</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>0.08836952380952387</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>0.08803838095238101</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0.0003311428571428632</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>0.08944761904761911</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>0.08909942857142863</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0.0003481904761904742</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>0.0905280952380953</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>0.09016047619047625</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0.0003676190476190472</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>0.09132571428571434</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>0.09122152380952388</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0.0001041904761904661</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>0.09229952380952389</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>0.09228257142857149</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>1.695238095239526e-05</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>0.09329190476190484</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>0.09334361904761909</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>-5.171428571425218e-05</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>0.09433190476190483</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>0.09440466666666672</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>-7.276190476189492e-05</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>0.09546571428571435</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>0.09546571428571435</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>0.09673333333333339</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>0.09673333333333339</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>0.09811000000000014</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>0.09811000000000014</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>0.09952714285714302</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>0.09952714285714302</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>0.1009347619047621</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>0.1009347619047621</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2627,7 +2215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,33 +2241,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.108</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01024355311355312</v>
+        <v>0.000492406015037597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.248</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.01073554945054946</v>
+        <v>0.8977283208020055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.464</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.902759711538462</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B5" s="2" t="n">
         <v>0.0003676190476190472</v>
       </c>
     </row>
